--- a/Shading Nets/my_graphs/Value Added Change by Commodities.xlsx
+++ b/Shading Nets/my_graphs/Value Added Change by Commodities.xlsx
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.961620926624164</v>
+        <v>-0.001789608126273379</v>
       </c>
       <c r="J2">
-        <v>-5.378620537783718</v>
+        <v>-0.01000978946103714</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-8.451787039120973E-05</v>
+        <v>-1.572906285218778E-07</v>
       </c>
       <c r="J3">
-        <v>-0.005607349725323729</v>
+        <v>-1.043546217260882E-05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.2540917515434558</v>
+        <v>-0.000472873100079596</v>
       </c>
       <c r="J4">
-        <v>-4.155050299275899</v>
+        <v>-0.007732685102382675</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.03159284071452362</v>
+        <v>-5.879531417463113E-05</v>
       </c>
       <c r="J5">
-        <v>-0.8440212149453146</v>
+        <v>-0.001570751202052634</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.0003176825314312737</v>
+        <v>-5.912179403821938E-07</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.3675464882398956</v>
+        <v>-0.0006840160785941407</v>
       </c>
       <c r="J7">
-        <v>-1.242968947102781</v>
+        <v>-0.002313206030521542</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.5185214891826035</v>
+        <v>-0.0009649855273892172</v>
       </c>
       <c r="J8">
-        <v>-7.974113527394366</v>
+        <v>-0.01484008721308783</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-5.252288660631166</v>
+        <v>-0.009774681704584509</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.3602652926929295</v>
+        <v>-0.0006704655243083835</v>
       </c>
       <c r="J10">
-        <v>-3.022679350222461</v>
+        <v>-0.005625305464491248</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.04942709226088482</v>
+        <v>-9.19854392122943E-05</v>
       </c>
       <c r="J11">
-        <v>-0.581101289462822</v>
+        <v>-0.001081448586774059</v>
       </c>
     </row>
   </sheetData>
